--- a/Temp_Data_Storage/University_of_Gallifrey_Template_Corrected.xlsx
+++ b/Temp_Data_Storage/University_of_Gallifrey_Template_Corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\_Data_Lake_Prototype\Projects\CAIR\2025\Temp_Data_Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C2361-A3AF-416B-BB91-F381729D4BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{94A5902A-74B0-45C4-8E38-B9119256F2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1095" windowWidth="37995" windowHeight="18870" xr2:uid="{EB2D645B-F97C-49E6-B53C-AE41401325ED}"/>
+    <workbookView xWindow="25260" yWindow="60" windowWidth="26910" windowHeight="18870" xr2:uid="{EB2D645B-F97C-49E6-B53C-AE41401325ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>First_Name</t>
   </si>
   <si>
-    <t>Middle_Initial</t>
-  </si>
-  <si>
     <t>Last_Name</t>
   </si>
   <si>
@@ -1125,6 +1122,9 @@
   </si>
   <si>
     <t>Cosmic Cartography Club</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,42 +1560,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="5">
         <v>20040714</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>97</v>
@@ -1603,22 +1603,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
         <v>20040714</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>56.5</v>
@@ -1626,22 +1626,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="5">
         <v>20040723</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>148.5</v>
@@ -1649,20 +1649,20 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>20060929</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>71.5</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>20061212</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>110</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="5">
         <v>20031224</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>133</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="5">
         <v>20031224</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>24.5</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="5">
         <v>20031219</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G9">
         <v>49</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="5">
         <v>20031219</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>65.5</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="5">
         <v>20021017</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>139</v>
@@ -1808,20 +1808,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5">
         <v>20070704</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>123.5</v>
@@ -1829,20 +1829,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
         <v>20020414</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>81</v>
@@ -1850,22 +1850,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="5">
         <v>20050214</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>38.5</v>
@@ -1873,22 +1873,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="5">
         <v>20060510</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>114.5</v>
@@ -1896,20 +1896,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5">
         <v>20060511</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <v>141</v>
@@ -1917,22 +1917,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E17" s="5">
         <v>20070813</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>52</v>
@@ -1940,20 +1940,20 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5">
         <v>20070811</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>118.5</v>
@@ -1961,22 +1961,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5">
         <v>20071226</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>15.5</v>
@@ -1984,22 +1984,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E20" s="5">
         <v>20070126</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>66</v>
@@ -2007,20 +2007,20 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="5">
         <v>20020525</v>
       </c>
       <c r="F21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G21">
         <v>79</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5">
         <v>20060113</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>130.5</v>
@@ -2051,22 +2051,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E23" s="5">
         <v>20060109</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G23">
         <v>27.5</v>
@@ -2074,22 +2074,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E24" s="5">
         <v>20040912</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>111.5</v>
@@ -2097,22 +2097,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E25" s="5">
         <v>20030723</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>91</v>
@@ -2120,22 +2120,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E26" s="5">
         <v>20050719</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>47.5</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="E27" s="5">
         <v>20030501</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>125.5</v>
@@ -2166,20 +2166,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="5">
         <v>20060605</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28">
         <v>64</v>
@@ -2187,22 +2187,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E29" s="5">
         <v>20060505</v>
       </c>
       <c r="F29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G29">
         <v>16</v>
@@ -2210,16 +2210,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E30" s="5">
         <v>20030524</v>
@@ -2230,20 +2230,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E31" s="5">
         <v>20070407</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31">
         <v>28.5</v>
@@ -2251,22 +2251,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E32" s="5">
         <v>20051019</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32">
         <v>142.5</v>
@@ -2274,22 +2274,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E33" s="5">
         <v>20040322</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33">
         <v>93</v>
@@ -2297,20 +2297,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="5">
         <v>20031029</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>137.5</v>
@@ -2318,22 +2318,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E35" s="5">
         <v>20070304</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35">
         <v>41</v>
@@ -2341,22 +2341,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="5">
         <v>20050814</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <v>19</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2375,7 +2375,7 @@
         <v>20060719</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37">
         <v>113</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E38" s="5">
         <v>20020108</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38">
         <v>132</v>
@@ -2406,20 +2406,20 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="5">
         <v>20070230</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>59</v>
@@ -2427,22 +2427,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E40" s="5">
         <v>20060812</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40">
         <v>75.5</v>
@@ -2450,20 +2450,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="5">
         <v>20070401</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41">
         <v>84.5</v>
@@ -2471,22 +2471,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E42" s="5">
         <v>20021229</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42">
         <v>145</v>
@@ -2494,22 +2494,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="E43" s="5">
         <v>20030121</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>43.5</v>
@@ -2517,20 +2517,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="5">
         <v>20030609</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>30</v>
@@ -2538,20 +2538,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="5">
         <v>20020727</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45">
         <v>50.5</v>
@@ -2559,22 +2559,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E46" s="5">
         <v>20071211</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G46">
         <v>70</v>
@@ -2582,20 +2582,20 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="5">
         <v>20030613</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <v>138</v>
@@ -2603,22 +2603,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" s="5">
         <v>20040626</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>100.5</v>
@@ -2626,20 +2626,20 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49" s="5">
         <v>20070205</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49">
         <v>62</v>
@@ -2647,22 +2647,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E50" s="5">
         <v>20060708</v>
       </c>
       <c r="F50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G50">
         <v>18.5</v>
@@ -2670,22 +2670,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E51" s="5">
         <v>20040126</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>108</v>
@@ -2693,20 +2693,20 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="5">
         <v>20070604</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>46.5</v>
@@ -2714,22 +2714,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="E53" s="5">
         <v>19990620</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -2737,20 +2737,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="5">
         <v>20020414</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54">
         <v>102.5</v>
@@ -2758,22 +2758,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="5">
         <v>20030719</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55">
         <v>11</v>
@@ -2781,22 +2781,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="5">
         <v>20071120</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56">
         <v>109.5</v>
@@ -2804,20 +2804,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" s="5">
         <v>20020214</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>94.5</v>
@@ -2825,20 +2825,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="5">
         <v>20020516</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58">
         <v>143</v>
@@ -2846,22 +2846,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E59" s="5">
         <v>20030806</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59">
         <v>44.5</v>
@@ -2869,20 +2869,20 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60" s="5">
         <v>20051007</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60">
         <v>39</v>
@@ -2890,22 +2890,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E61" s="5">
         <v>20050729</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61">
         <v>14.5</v>
@@ -2913,20 +2913,20 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" s="5">
         <v>20021225</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62">
         <v>122</v>
@@ -2934,22 +2934,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E63" s="5">
         <v>20070614</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63">
         <v>48.5</v>
@@ -2957,22 +2957,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E64" s="5">
         <v>20071109</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64">
         <v>140.5</v>
@@ -2980,20 +2980,20 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E65" s="5">
         <v>19960611</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>34.5</v>
@@ -3001,22 +3001,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E66" s="5">
         <v>20030202</v>
       </c>
       <c r="F66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G66">
         <v>105.5</v>
@@ -3024,20 +3024,20 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E67" s="5">
         <v>20021203</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <v>85</v>
@@ -3045,22 +3045,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E68" s="5">
         <v>20040513</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68">
         <v>67</v>
@@ -3068,22 +3068,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E69" s="5">
         <v>20071126</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <v>131.5</v>
@@ -3091,22 +3091,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="E70" s="5">
         <v>20070230</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>98</v>
@@ -3114,20 +3114,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E71" s="5">
         <v>20040302</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71">
         <v>31</v>
@@ -3135,20 +3135,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E72" s="5">
         <v>20070304</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>23.5</v>
@@ -3156,22 +3156,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="E73" s="5">
         <v>20071230</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G73">
         <v>107.5</v>
@@ -3179,22 +3179,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="E74" s="5">
         <v>20060713</v>
       </c>
       <c r="F74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G74">
         <v>26</v>
@@ -3202,20 +3202,20 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="5">
         <v>20070126</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75">
         <v>77</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="E76" s="5">
         <v>20050720</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>90.5</v>
@@ -3246,22 +3246,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="E77" s="5">
         <v>20031008</v>
       </c>
       <c r="F77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G77">
         <v>136</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3280,7 +3280,7 @@
         <v>20030315</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78">
         <v>76.5</v>
@@ -3288,22 +3288,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E79" s="5">
         <v>20070504</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79">
         <v>32.5</v>
@@ -3311,22 +3311,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="E80" s="5">
         <v>20050625</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80">
         <v>29</v>
@@ -3334,20 +3334,20 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="5">
         <v>20030707</v>
       </c>
       <c r="F81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G81">
         <v>54.5</v>
@@ -3355,22 +3355,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="E82" s="5">
         <v>20021117</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82">
         <v>20</v>
@@ -3378,20 +3378,20 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E83" s="5">
         <v>20050106</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83">
         <v>72.5</v>
@@ -3399,22 +3399,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="E84" s="5">
         <v>20060623</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G84">
         <v>63</v>
@@ -3422,22 +3422,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="E85" s="5">
         <v>20070401</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>88.5</v>
@@ -3445,20 +3445,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E86" s="5">
         <v>20060401</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86">
         <v>40.5</v>
@@ -3466,22 +3466,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E87" s="5">
         <v>20070614</v>
       </c>
       <c r="F87" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G87">
         <v>42</v>
@@ -3489,22 +3489,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="E88" s="5">
         <v>20041003</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G88">
         <v>13.5</v>
@@ -3512,20 +3512,20 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E89" s="5">
         <v>20040416</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>147</v>
@@ -3533,22 +3533,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="E90" s="5">
         <v>20071205</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G90">
         <v>146.5</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="E91" s="5">
         <v>20050610</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91">
         <v>124</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="E92" s="5">
         <v>20030904</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92">
         <v>95</v>
@@ -3602,22 +3602,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="E93" s="5">
         <v>20020720</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>104.5</v>
@@ -3625,20 +3625,20 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E94" s="5">
         <v>20070425</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G94">
         <v>37</v>
@@ -3646,20 +3646,20 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E95" s="5">
         <v>20070504</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G95">
         <v>68</v>
@@ -3667,22 +3667,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E96" s="5">
         <v>20020205</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G96">
         <v>21.5</v>
@@ -3690,20 +3690,20 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E97" s="5">
         <v>20070604</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G97">
         <v>127.5</v>
@@ -3711,22 +3711,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="E98" s="5">
         <v>20060811</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G98">
         <v>35.5</v>
@@ -3734,22 +3734,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="E99" s="5">
         <v>20070425</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G99">
         <v>22</v>
@@ -3757,22 +3757,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E100" s="5">
         <v>20020301</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G100">
         <v>99</v>
@@ -3780,22 +3780,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E101" s="5">
         <v>20050515</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G101">
         <v>61.5</v>
@@ -3803,22 +3803,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="E102" s="5">
         <v>20050905</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G102">
         <v>117.5</v>
@@ -3826,22 +3826,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="E103" s="5">
         <v>20071120</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G103">
         <v>12</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="E104" s="5">
         <v>20031008</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <v>134.5</v>
@@ -3872,20 +3872,20 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E105" s="5">
         <v>20040210</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G105">
         <v>119</v>
@@ -3893,22 +3893,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="C106" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E106" s="5">
         <v>20110217</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G106">
         <v>17.5</v>
@@ -3916,22 +3916,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="E107" s="5">
         <v>20050801</v>
       </c>
       <c r="F107" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G107">
         <v>128.5</v>
@@ -3939,22 +3939,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="E108" s="5">
         <v>20040803</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>115.5</v>
@@ -3962,22 +3962,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="E109" s="5">
         <v>20021231</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109">
         <v>58.5</v>
@@ -3985,20 +3985,20 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E110" s="5">
         <v>20041216</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G110">
         <v>33.5</v>
@@ -4006,22 +4006,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="E111" s="5">
         <v>20041217</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>103</v>
